--- a/branches/may/StructureDefinition-be-model-medicationline.xlsx
+++ b/branches/may/StructureDefinition-be-model-medicationline.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="198">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-07T09:01:04+00:00</t>
+    <t>2024-05-07T09:20:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -312,9 +312,6 @@
     <t>Reason for the status</t>
   </si>
   <si>
-    <t xml:space="preserve"> We consider this is not necessary - should we add?</t>
-  </si>
-  <si>
     <t>be-model-medicationline.assertedDate</t>
   </si>
   <si>
@@ -561,7 +558,7 @@
     <t>be-model-medicationline.adherence.modifierExtension</t>
   </si>
   <si>
-    <t>be-model-medicationline.adherence.code</t>
+    <t>be-model-medicationline.adherence.status</t>
   </si>
   <si>
     <t>The status - taking, not taking,...</t>
@@ -1637,9 +1634,7 @@
       <c r="M7" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="N7" t="s" s="2">
-        <v>97</v>
-      </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
         <v>74</v>
@@ -1705,10 +1700,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1734,13 +1729,13 @@
         <v>88</v>
       </c>
       <c r="L8" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1790,7 +1785,7 @@
         <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>75</v>
@@ -1807,10 +1802,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1833,16 +1828,16 @@
         <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="N9" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -1892,7 +1887,7 @@
         <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
@@ -1909,10 +1904,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1935,13 +1930,13 @@
         <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1992,7 +1987,7 @@
         <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -2009,10 +2004,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2023,7 +2018,7 @@
         <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>74</v>
@@ -2035,13 +2030,13 @@
         <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L11" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="M11" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2092,27 +2087,27 @@
         <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2138,10 +2133,10 @@
         <v>85</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2192,7 +2187,7 @@
         <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -2209,14 +2204,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2235,16 +2230,16 @@
         <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2282,19 +2277,19 @@
         <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AC13" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="AC13" t="s" s="2">
+      <c r="AD13" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE13" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="AD13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE13" t="s" s="2">
+      <c r="AF13" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>75</v>
@@ -2306,19 +2301,19 @@
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2331,25 +2326,25 @@
         <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="J14" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O14" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>74</v>
@@ -2398,7 +2393,7 @@
         <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -2410,15 +2405,15 @@
         <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2444,10 +2439,10 @@
         <v>95</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2498,7 +2493,7 @@
         <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -2515,10 +2510,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2541,13 +2536,13 @@
         <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2598,7 +2593,7 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -2610,15 +2605,15 @@
         <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2644,10 +2639,10 @@
         <v>85</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2698,7 +2693,7 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -2715,14 +2710,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -2741,16 +2736,16 @@
         <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -2788,19 +2783,19 @@
         <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AC18" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="AC18" t="s" s="2">
+      <c r="AD18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="AD18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE18" t="s" s="2">
+      <c r="AF18" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -2812,19 +2807,19 @@
         <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -2837,25 +2832,25 @@
         <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="J19" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O19" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>74</v>
@@ -2904,7 +2899,7 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -2916,15 +2911,15 @@
         <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2947,13 +2942,13 @@
         <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>143</v>
-      </c>
       <c r="M20" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3004,7 +2999,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -3021,10 +3016,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3050,10 +3045,10 @@
         <v>95</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3080,11 +3075,11 @@
         <v>74</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>74</v>
@@ -3102,7 +3097,7 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -3119,10 +3114,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3148,10 +3143,10 @@
         <v>95</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3178,11 +3173,11 @@
         <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>74</v>
@@ -3200,7 +3195,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -3217,10 +3212,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3243,13 +3238,13 @@
         <v>74</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3300,7 +3295,7 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
@@ -3312,15 +3307,15 @@
         <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3346,10 +3341,10 @@
         <v>85</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3400,7 +3395,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -3417,14 +3412,14 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -3443,16 +3438,16 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -3490,19 +3485,19 @@
         <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AC25" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="AC25" t="s" s="2">
+      <c r="AD25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="AD25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE25" t="s" s="2">
+      <c r="AF25" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -3514,19 +3509,19 @@
         <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -3539,25 +3534,25 @@
         <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="J26" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O26" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>74</v>
@@ -3606,7 +3601,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -3618,15 +3613,15 @@
         <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3649,13 +3644,13 @@
         <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>158</v>
-      </c>
       <c r="M27" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -3706,7 +3701,7 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
@@ -3723,10 +3718,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3752,10 +3747,10 @@
         <v>95</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -3806,7 +3801,7 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>75</v>
@@ -3823,10 +3818,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3849,16 +3844,16 @@
         <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -3908,7 +3903,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -3920,15 +3915,15 @@
         <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -3954,10 +3949,10 @@
         <v>85</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4008,7 +4003,7 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
@@ -4025,14 +4020,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4051,16 +4046,16 @@
         <v>74</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4098,19 +4093,19 @@
         <v>74</v>
       </c>
       <c r="AB31" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AC31" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="AC31" t="s" s="2">
+      <c r="AD31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="AD31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE31" t="s" s="2">
+      <c r="AF31" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -4122,19 +4117,19 @@
         <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4147,25 +4142,25 @@
         <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="J32" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O32" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>74</v>
@@ -4214,7 +4209,7 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
@@ -4226,15 +4221,15 @@
         <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4260,10 +4255,10 @@
         <v>88</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4314,7 +4309,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -4331,10 +4326,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4360,10 +4355,10 @@
         <v>88</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4414,7 +4409,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -4431,10 +4426,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4457,13 +4452,13 @@
         <v>74</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4514,7 +4509,7 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>75</v>
@@ -4526,15 +4521,15 @@
         <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4560,10 +4555,10 @@
         <v>85</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4614,7 +4609,7 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
@@ -4631,14 +4626,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -4657,16 +4652,16 @@
         <v>74</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -4704,19 +4699,19 @@
         <v>74</v>
       </c>
       <c r="AB37" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AC37" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="AC37" t="s" s="2">
+      <c r="AD37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE37" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="AD37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE37" t="s" s="2">
+      <c r="AF37" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -4728,19 +4723,19 @@
         <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -4753,25 +4748,25 @@
         <v>74</v>
       </c>
       <c r="I38" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="J38" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O38" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>74</v>
@@ -4820,7 +4815,7 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
@@ -4832,15 +4827,15 @@
         <v>74</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -4866,10 +4861,10 @@
         <v>95</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -4920,7 +4915,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -4937,10 +4932,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -4966,10 +4961,10 @@
         <v>95</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5020,7 +5015,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -5037,10 +5032,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5063,13 +5058,13 @@
         <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5120,7 +5115,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -5132,15 +5127,15 @@
         <v>74</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5166,10 +5161,10 @@
         <v>85</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5220,7 +5215,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -5237,14 +5232,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -5263,16 +5258,16 @@
         <v>74</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -5310,19 +5305,19 @@
         <v>74</v>
       </c>
       <c r="AB43" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AC43" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="AC43" t="s" s="2">
+      <c r="AD43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE43" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="AD43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE43" t="s" s="2">
+      <c r="AF43" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -5334,19 +5329,19 @@
         <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -5359,25 +5354,25 @@
         <v>74</v>
       </c>
       <c r="I44" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="J44" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O44" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>74</v>
@@ -5426,7 +5421,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -5438,15 +5433,15 @@
         <v>74</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5469,13 +5464,13 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="M45" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -5526,7 +5521,7 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
@@ -5543,10 +5538,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5569,16 +5564,16 @@
         <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -5628,7 +5623,7 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
@@ -5645,10 +5640,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -5656,7 +5651,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>80</v>
@@ -5674,14 +5669,12 @@
         <v>95</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>74</v>
@@ -5730,10 +5723,10 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>80</v>
@@ -5747,10 +5740,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -5773,13 +5766,13 @@
         <v>74</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>196</v>
-      </c>
       <c r="M48" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -5830,7 +5823,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -5847,10 +5840,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -5861,7 +5854,7 @@
         <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>74</v>
@@ -5876,10 +5869,10 @@
         <v>95</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -5930,13 +5923,13 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>74</v>

--- a/branches/may/StructureDefinition-be-model-medicationline.xlsx
+++ b/branches/may/StructureDefinition-be-model-medicationline.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-07T09:20:42+00:00</t>
+    <t>2024-05-07T13:22:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>80</v>
@@ -1384,7 +1384,7 @@
         <v>84</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>80</v>
